--- a/Median_RGDP_Level.xlsx
+++ b/Median_RGDP_Level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/FOMC_Sentiment_Macro_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{C32186B1-655E-4909-AE3B-DE016166CB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{29DFFFFB-D8B0-43AA-B2F4-2838952EF958}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{C32186B1-655E-4909-AE3B-DE016166CB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFCC83F9-D505-4A04-B4E5-BD9DB47D5D21}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="996" windowWidth="13584" windowHeight="13524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20064" yWindow="36" windowWidth="10704" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Level" sheetId="1" r:id="rId1"/>
@@ -275,8 +275,8 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152:XFD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.05" customHeight="1"/>
